--- a/data/georgia_census/imereti/bagdadi/average_wages.xlsx
+++ b/data/georgia_census/imereti/bagdadi/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6ACE4F-4D3A-4580-82A2-14EFE56C5294}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BAC494-4271-4F01-9F79-424699EE9355}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DB553A-A689-4AEB-BDB4-E936B4A4EC9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2275B464-B5FD-4C52-BF31-C1B8BA4FD5DD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719EA009-2A67-4028-9842-53D43027F79D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57D0156-C8B0-4C66-A936-1931272FD6BC}"/>
 </file>